--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.859690000000001</v>
+        <v>0.7519083333333333</v>
       </c>
       <c r="H2">
-        <v>14.57907</v>
+        <v>2.255725</v>
       </c>
       <c r="I2">
-        <v>0.4445218291063106</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="J2">
-        <v>0.4445218291063105</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5150980000000001</v>
+        <v>2.5191905</v>
       </c>
       <c r="N2">
-        <v>1.030196</v>
+        <v>5.038381</v>
       </c>
       <c r="O2">
-        <v>0.07656787870625796</v>
+        <v>0.2895559137428469</v>
       </c>
       <c r="P2">
-        <v>0.05529560532417912</v>
+        <v>0.2218380148416813</v>
       </c>
       <c r="Q2">
-        <v>2.50321659962</v>
+        <v>1.894200330204167</v>
       </c>
       <c r="R2">
-        <v>15.01929959772</v>
+        <v>11.365201981225</v>
       </c>
       <c r="S2">
-        <v>0.03403609349329591</v>
+        <v>0.03922532353203975</v>
       </c>
       <c r="T2">
-        <v>0.02458010362024474</v>
+        <v>0.03005177062830874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.859690000000001</v>
+        <v>0.7519083333333333</v>
       </c>
       <c r="H3">
-        <v>14.57907</v>
+        <v>2.255725</v>
       </c>
       <c r="I3">
-        <v>0.4445218291063106</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="J3">
-        <v>0.4445218291063105</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.491349</v>
       </c>
       <c r="O3">
-        <v>0.2225421605593971</v>
+        <v>0.1720786450558915</v>
       </c>
       <c r="P3">
-        <v>0.2410724383293534</v>
+        <v>0.1977524022342039</v>
       </c>
       <c r="Q3">
-        <v>7.275521273936667</v>
+        <v>1.125694247002778</v>
       </c>
       <c r="R3">
-        <v>65.47969146542999</v>
+        <v>10.131248223025</v>
       </c>
       <c r="S3">
-        <v>0.09892484826513342</v>
+        <v>0.02331100904838323</v>
       </c>
       <c r="T3">
-        <v>0.1071619612332824</v>
+        <v>0.02678896057278793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.859690000000001</v>
+        <v>0.7519083333333333</v>
       </c>
       <c r="H4">
-        <v>14.57907</v>
+        <v>2.255725</v>
       </c>
       <c r="I4">
-        <v>0.4445218291063106</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="J4">
-        <v>0.4445218291063105</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9008220000000001</v>
+        <v>0.593622</v>
       </c>
       <c r="N4">
-        <v>2.702466</v>
+        <v>1.780866</v>
       </c>
       <c r="O4">
-        <v>0.1339046737357332</v>
+        <v>0.06823094983402654</v>
       </c>
       <c r="P4">
-        <v>0.1450544297764824</v>
+        <v>0.07841085819810882</v>
       </c>
       <c r="Q4">
-        <v>4.377715665180001</v>
+        <v>0.44634932865</v>
       </c>
       <c r="R4">
-        <v>39.39944098662001</v>
+        <v>4.01714395785</v>
       </c>
       <c r="S4">
-        <v>0.05952355049489188</v>
+        <v>0.009243054467590481</v>
       </c>
       <c r="T4">
-        <v>0.06447986044421482</v>
+        <v>0.01062209796197502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.859690000000001</v>
+        <v>0.7519083333333333</v>
       </c>
       <c r="H5">
-        <v>14.57907</v>
+        <v>2.255725</v>
       </c>
       <c r="I5">
-        <v>0.4445218291063106</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="J5">
-        <v>0.4445218291063105</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.036213</v>
+        <v>0.8693875</v>
       </c>
       <c r="N5">
-        <v>2.072426</v>
+        <v>1.738775</v>
       </c>
       <c r="O5">
-        <v>0.1540301676532382</v>
+        <v>0.09992745366382942</v>
       </c>
       <c r="P5">
-        <v>0.1112371336712307</v>
+        <v>0.07655760734576136</v>
       </c>
       <c r="Q5">
-        <v>5.035673953970001</v>
+        <v>0.6536997061458333</v>
       </c>
       <c r="R5">
-        <v>30.21404372382001</v>
+        <v>3.922198236875</v>
       </c>
       <c r="S5">
-        <v>0.0684697718627691</v>
+        <v>0.01353689050598246</v>
       </c>
       <c r="T5">
-        <v>0.04944733412407865</v>
+        <v>0.01037104329232695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.859690000000001</v>
+        <v>0.7519083333333333</v>
       </c>
       <c r="H6">
-        <v>14.57907</v>
+        <v>2.255725</v>
       </c>
       <c r="I6">
-        <v>0.4445218291063106</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="J6">
-        <v>0.4445218291063105</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.414697</v>
+        <v>2.794049333333334</v>
       </c>
       <c r="N6">
-        <v>1.244091</v>
+        <v>8.382148000000001</v>
       </c>
       <c r="O6">
-        <v>0.06164355053960423</v>
+        <v>0.321148205249236</v>
       </c>
       <c r="P6">
-        <v>0.06677638519598535</v>
+        <v>0.3690628145090992</v>
       </c>
       <c r="Q6">
-        <v>2.01529886393</v>
+        <v>2.100868977477778</v>
       </c>
       <c r="R6">
-        <v>18.13768977537</v>
+        <v>18.9078207973</v>
       </c>
       <c r="S6">
-        <v>0.02740190383847217</v>
+        <v>0.04350504222069747</v>
       </c>
       <c r="T6">
-        <v>0.02968356088842696</v>
+        <v>0.04999589929156546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.859690000000001</v>
+        <v>0.7519083333333333</v>
       </c>
       <c r="H7">
-        <v>14.57907</v>
+        <v>2.255725</v>
       </c>
       <c r="I7">
-        <v>0.4445218291063106</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="J7">
-        <v>0.4445218291063105</v>
+        <v>0.135467181536743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.363391666666667</v>
+        <v>0.426821</v>
       </c>
       <c r="N7">
-        <v>7.090175</v>
+        <v>1.280463</v>
       </c>
       <c r="O7">
-        <v>0.3513115688057693</v>
+        <v>0.04905883245416956</v>
       </c>
       <c r="P7">
-        <v>0.3805640077027689</v>
+        <v>0.05637830287114527</v>
       </c>
       <c r="Q7">
-        <v>11.48535084858334</v>
+        <v>0.3209302667416666</v>
       </c>
       <c r="R7">
-        <v>103.36815763725</v>
+        <v>2.888372400675</v>
       </c>
       <c r="S7">
-        <v>0.156165661151748</v>
+        <v>0.006645861762049649</v>
       </c>
       <c r="T7">
-        <v>0.1691690087960629</v>
+        <v>0.007637409789778917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02581033333333333</v>
+        <v>0.5089346666666666</v>
       </c>
       <c r="H8">
-        <v>0.077431</v>
+        <v>1.526804</v>
       </c>
       <c r="I8">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469101</v>
       </c>
       <c r="J8">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469102</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5150980000000001</v>
+        <v>2.5191905</v>
       </c>
       <c r="N8">
-        <v>1.030196</v>
+        <v>5.038381</v>
       </c>
       <c r="O8">
-        <v>0.07656787870625796</v>
+        <v>0.2895559137428469</v>
       </c>
       <c r="P8">
-        <v>0.05529560532417912</v>
+        <v>0.2218380148416813</v>
       </c>
       <c r="Q8">
-        <v>0.01329485107933333</v>
+        <v>1.282103377387333</v>
       </c>
       <c r="R8">
-        <v>0.07976910647600001</v>
+        <v>7.692620264324</v>
       </c>
       <c r="S8">
-        <v>0.0001807693326995066</v>
+        <v>0.02654994774186233</v>
       </c>
       <c r="T8">
-        <v>0.0001305475591666115</v>
+        <v>0.02034076121973392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02581033333333333</v>
+        <v>0.5089346666666666</v>
       </c>
       <c r="H9">
-        <v>0.077431</v>
+        <v>1.526804</v>
       </c>
       <c r="I9">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469101</v>
       </c>
       <c r="J9">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.491349</v>
       </c>
       <c r="O9">
-        <v>0.2225421605593971</v>
+        <v>0.1720786450558915</v>
       </c>
       <c r="P9">
-        <v>0.2410724383293534</v>
+        <v>0.1977524022342039</v>
       </c>
       <c r="Q9">
-        <v>0.03864107160211111</v>
+        <v>0.7619344020662222</v>
       </c>
       <c r="R9">
-        <v>0.347769644419</v>
+        <v>6.857409618595999</v>
       </c>
       <c r="S9">
-        <v>0.0005254004491382198</v>
+        <v>0.01577822733671334</v>
       </c>
       <c r="T9">
-        <v>0.0005691486370704228</v>
+        <v>0.01813230431829009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02581033333333333</v>
+        <v>0.5089346666666666</v>
       </c>
       <c r="H10">
-        <v>0.077431</v>
+        <v>1.526804</v>
       </c>
       <c r="I10">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469101</v>
       </c>
       <c r="J10">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469102</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9008220000000001</v>
+        <v>0.593622</v>
       </c>
       <c r="N10">
-        <v>2.702466</v>
+        <v>1.780866</v>
       </c>
       <c r="O10">
-        <v>0.1339046737357332</v>
+        <v>0.06823094983402654</v>
       </c>
       <c r="P10">
-        <v>0.1450544297764824</v>
+        <v>0.07841085819810882</v>
       </c>
       <c r="Q10">
-        <v>0.023250516094</v>
+        <v>0.302114814696</v>
       </c>
       <c r="R10">
-        <v>0.209254644846</v>
+        <v>2.719033332264</v>
       </c>
       <c r="S10">
-        <v>0.0003161359427158229</v>
+        <v>0.006256229165051154</v>
       </c>
       <c r="T10">
-        <v>0.0003424594349335039</v>
+        <v>0.007189644862177488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02581033333333333</v>
+        <v>0.5089346666666666</v>
       </c>
       <c r="H11">
-        <v>0.077431</v>
+        <v>1.526804</v>
       </c>
       <c r="I11">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469101</v>
       </c>
       <c r="J11">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469102</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.036213</v>
+        <v>0.8693875</v>
       </c>
       <c r="N11">
-        <v>2.072426</v>
+        <v>1.738775</v>
       </c>
       <c r="O11">
-        <v>0.1540301676532382</v>
+        <v>0.09992745366382942</v>
       </c>
       <c r="P11">
-        <v>0.1112371336712307</v>
+        <v>0.07655760734576136</v>
       </c>
       <c r="Q11">
-        <v>0.02674500293433334</v>
+        <v>0.4424614375166666</v>
       </c>
       <c r="R11">
-        <v>0.160470017606</v>
+        <v>2.6547686251</v>
       </c>
       <c r="S11">
-        <v>0.0003636502811980513</v>
+        <v>0.00916254356009533</v>
       </c>
       <c r="T11">
-        <v>0.000262620079920155</v>
+        <v>0.007019716668874952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02581033333333333</v>
+        <v>0.5089346666666666</v>
       </c>
       <c r="H12">
-        <v>0.077431</v>
+        <v>1.526804</v>
       </c>
       <c r="I12">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469101</v>
       </c>
       <c r="J12">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469102</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.414697</v>
+        <v>2.794049333333334</v>
       </c>
       <c r="N12">
-        <v>1.244091</v>
+        <v>8.382148000000001</v>
       </c>
       <c r="O12">
-        <v>0.06164355053960423</v>
+        <v>0.321148205249236</v>
       </c>
       <c r="P12">
-        <v>0.06677638519598535</v>
+        <v>0.3690628145090992</v>
       </c>
       <c r="Q12">
-        <v>0.01070346780233333</v>
+        <v>1.421988566110222</v>
       </c>
       <c r="R12">
-        <v>0.09633121022100001</v>
+        <v>12.797897094992</v>
       </c>
       <c r="S12">
-        <v>0.0001455344419168533</v>
+        <v>0.02944670670526317</v>
       </c>
       <c r="T12">
-        <v>0.0001576525665321442</v>
+        <v>0.03384009088960725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02581033333333333</v>
+        <v>0.5089346666666666</v>
       </c>
       <c r="H13">
-        <v>0.077431</v>
+        <v>1.526804</v>
       </c>
       <c r="I13">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469101</v>
       </c>
       <c r="J13">
-        <v>0.002360902975946389</v>
+        <v>0.09169195475469102</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.363391666666667</v>
+        <v>0.426821</v>
       </c>
       <c r="N13">
-        <v>7.090175</v>
+        <v>1.280463</v>
       </c>
       <c r="O13">
-        <v>0.3513115688057693</v>
+        <v>0.04905883245416956</v>
       </c>
       <c r="P13">
-        <v>0.3805640077027689</v>
+        <v>0.05637830287114527</v>
       </c>
       <c r="Q13">
-        <v>0.0609999267138889</v>
+        <v>0.2172240033613333</v>
       </c>
       <c r="R13">
-        <v>0.548999340425</v>
+        <v>1.955016030252</v>
       </c>
       <c r="S13">
-        <v>0.0008294125282779355</v>
+        <v>0.004498300245705683</v>
       </c>
       <c r="T13">
-        <v>0.0008984746983235518</v>
+        <v>0.005169436796007319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.046898666666667</v>
+        <v>4.289640333333334</v>
       </c>
       <c r="H14">
-        <v>18.140696</v>
+        <v>12.868921</v>
       </c>
       <c r="I14">
-        <v>0.5531172679177432</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="J14">
-        <v>0.5531172679177431</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5150980000000001</v>
+        <v>2.5191905</v>
       </c>
       <c r="N14">
-        <v>1.030196</v>
+        <v>5.038381</v>
       </c>
       <c r="O14">
-        <v>0.07656787870625796</v>
+        <v>0.2895559137428469</v>
       </c>
       <c r="P14">
-        <v>0.05529560532417912</v>
+        <v>0.2218380148416813</v>
       </c>
       <c r="Q14">
-        <v>3.114745409402667</v>
+        <v>10.80642117615017</v>
       </c>
       <c r="R14">
-        <v>18.688472456416</v>
+        <v>64.838527056901</v>
       </c>
       <c r="S14">
-        <v>0.04235101588026255</v>
+        <v>0.2237806424689448</v>
       </c>
       <c r="T14">
-        <v>0.03058495414476776</v>
+        <v>0.1714454829936387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.046898666666667</v>
+        <v>4.289640333333334</v>
       </c>
       <c r="H15">
-        <v>18.140696</v>
+        <v>12.868921</v>
       </c>
       <c r="I15">
-        <v>0.5531172679177432</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="J15">
-        <v>0.5531172679177431</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.491349</v>
       </c>
       <c r="O15">
-        <v>0.2225421605593971</v>
+        <v>0.1720786450558915</v>
       </c>
       <c r="P15">
-        <v>0.2410724383293534</v>
+        <v>0.1977524022342039</v>
       </c>
       <c r="Q15">
-        <v>9.052910759878223</v>
+        <v>6.422090607158778</v>
       </c>
       <c r="R15">
-        <v>81.476196838904</v>
+        <v>57.798815464429</v>
       </c>
       <c r="S15">
-        <v>0.1230919118451255</v>
+        <v>0.1329894086707949</v>
       </c>
       <c r="T15">
-        <v>0.1333413284590005</v>
+        <v>0.1528311373431259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.046898666666667</v>
+        <v>4.289640333333334</v>
       </c>
       <c r="H16">
-        <v>18.140696</v>
+        <v>12.868921</v>
       </c>
       <c r="I16">
-        <v>0.5531172679177432</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="J16">
-        <v>0.5531172679177431</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9008220000000001</v>
+        <v>0.593622</v>
       </c>
       <c r="N16">
-        <v>2.702466</v>
+        <v>1.780866</v>
       </c>
       <c r="O16">
-        <v>0.1339046737357332</v>
+        <v>0.06823094983402654</v>
       </c>
       <c r="P16">
-        <v>0.1450544297764824</v>
+        <v>0.07841085819810882</v>
       </c>
       <c r="Q16">
-        <v>5.447179350704001</v>
+        <v>2.546424873954</v>
       </c>
       <c r="R16">
-        <v>49.02461415633601</v>
+        <v>22.917823865586</v>
       </c>
       <c r="S16">
-        <v>0.07406498729812554</v>
+        <v>0.0527316662013849</v>
       </c>
       <c r="T16">
-        <v>0.08023210989733406</v>
+        <v>0.06059911537395631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.046898666666667</v>
+        <v>4.289640333333334</v>
       </c>
       <c r="H17">
-        <v>18.140696</v>
+        <v>12.868921</v>
       </c>
       <c r="I17">
-        <v>0.5531172679177432</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="J17">
-        <v>0.5531172679177431</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.036213</v>
+        <v>0.8693875</v>
       </c>
       <c r="N17">
-        <v>2.072426</v>
+        <v>1.738775</v>
       </c>
       <c r="O17">
-        <v>0.1540301676532382</v>
+        <v>0.09992745366382942</v>
       </c>
       <c r="P17">
-        <v>0.1112371336712307</v>
+        <v>0.07655760734576136</v>
       </c>
       <c r="Q17">
-        <v>6.265875008082667</v>
+        <v>3.729359685295834</v>
       </c>
       <c r="R17">
-        <v>37.59525004849601</v>
+        <v>22.376158111775</v>
       </c>
       <c r="S17">
-        <v>0.08519674550927105</v>
+        <v>0.07722801959775162</v>
       </c>
       <c r="T17">
-        <v>0.06152717946723193</v>
+        <v>0.05916684738455946</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.046898666666667</v>
+        <v>4.289640333333334</v>
       </c>
       <c r="H18">
-        <v>18.140696</v>
+        <v>12.868921</v>
       </c>
       <c r="I18">
-        <v>0.5531172679177432</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="J18">
-        <v>0.5531172679177431</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.414697</v>
+        <v>2.794049333333334</v>
       </c>
       <c r="N18">
-        <v>1.244091</v>
+        <v>8.382148000000001</v>
       </c>
       <c r="O18">
-        <v>0.06164355053960423</v>
+        <v>0.321148205249236</v>
       </c>
       <c r="P18">
-        <v>0.06677638519598535</v>
+        <v>0.3690628145090992</v>
       </c>
       <c r="Q18">
-        <v>2.507630736370667</v>
+        <v>11.98546671358978</v>
       </c>
       <c r="R18">
-        <v>22.568676627336</v>
+        <v>107.869200422308</v>
       </c>
       <c r="S18">
-        <v>0.03409611225921522</v>
+        <v>0.2481964563232754</v>
       </c>
       <c r="T18">
-        <v>0.03693517174102624</v>
+        <v>0.2852268243279265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.046898666666667</v>
+        <v>4.289640333333334</v>
       </c>
       <c r="H19">
-        <v>18.140696</v>
+        <v>12.868921</v>
       </c>
       <c r="I19">
-        <v>0.5531172679177432</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="J19">
-        <v>0.5531172679177431</v>
+        <v>0.7728408637085659</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.363391666666667</v>
+        <v>0.426821</v>
       </c>
       <c r="N19">
-        <v>7.090175</v>
+        <v>1.280463</v>
       </c>
       <c r="O19">
-        <v>0.3513115688057693</v>
+        <v>0.04905883245416956</v>
       </c>
       <c r="P19">
-        <v>0.3805640077027689</v>
+        <v>0.05637830287114527</v>
       </c>
       <c r="Q19">
-        <v>14.29118991797778</v>
+        <v>1.830908576713667</v>
       </c>
       <c r="R19">
-        <v>128.6207092618</v>
+        <v>16.478177190423</v>
       </c>
       <c r="S19">
-        <v>0.1943164951257434</v>
+        <v>0.03791467044641422</v>
       </c>
       <c r="T19">
-        <v>0.2104965242083824</v>
+        <v>0.04357145628535903</v>
       </c>
     </row>
   </sheetData>
